--- a/Data/complete_mapping.xlsx
+++ b/Data/complete_mapping.xlsx
@@ -92,9 +92,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Vernon mapping</t>
-  </si>
-  <si>
     <t>Human readable name of the mapping</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>VM</t>
-  </si>
-  <si>
     <t>Alphanumeric code of the mapping</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
   </si>
   <si>
     <t>ca_objects.preferred_labels</t>
-  </si>
-  <si>
-    <t>merge_on_idno_with_replace</t>
   </si>
   <si>
     <t>ca_objects.gen_format</t>
@@ -352,6 +343,15 @@
   </si>
   <si>
     <t>ca_objects.other_id</t>
+  </si>
+  <si>
+    <t>Complete mapping</t>
+  </si>
+  <si>
+    <t>MAP02</t>
+  </si>
+  <si>
+    <t>merge_on_idno</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,7 +799,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -820,7 +820,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -841,7 +841,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="64" x14ac:dyDescent="0.2">
@@ -852,21 +852,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -887,7 +887,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="336" x14ac:dyDescent="0.2">
@@ -898,23 +898,23 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -933,7 +933,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -954,7 +954,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="64" x14ac:dyDescent="0.2">
@@ -965,21 +965,21 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="160" x14ac:dyDescent="0.2">
@@ -990,21 +990,21 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1042,7 +1042,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1080,7 +1080,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1101,7 +1101,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1122,7 +1122,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
@@ -1143,7 +1143,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1162,7 +1162,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="128" x14ac:dyDescent="0.2">
@@ -1173,15 +1173,15 @@
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1264,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -1284,16 +1284,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="5"/>
@@ -1307,16 +1307,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="5"/>
@@ -1330,16 +1330,16 @@
         <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1353,16 +1353,16 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1376,16 +1376,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1399,13 +1399,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
@@ -1420,13 +1420,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1441,13 +1441,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1462,13 +1462,13 @@
         <v>20</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1483,16 +1483,16 @@
         <v>20</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
